--- a/utilities/Excel_Sheets/Products/Transitional_Living_Facilities.xlsx
+++ b/utilities/Excel_Sheets/Products/Transitional_Living_Facilities.xlsx
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -171,6 +171,7 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +503,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,11 +575,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -596,7 +597,7 @@
         <v>91436</v>
       </c>
       <c r="J2" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="5">
         <v>5</v>
@@ -618,11 +619,11 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D4" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -662,11 +663,11 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D6" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -720,11 +721,11 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D8" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -778,11 +779,11 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D10" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -836,11 +837,11 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D12" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -894,11 +895,11 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D14" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -952,11 +953,11 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D16" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>3</v>
@@ -1117,10 +1118,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D535A8-9396-4B03-85A5-7F60C601EFAB}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,8 +1131,8 @@
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
@@ -1192,11 +1193,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -1210,7 +1211,7 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>91436</v>
       </c>
       <c r="J2" s="5">
@@ -1236,11 +1237,11 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:C10" ca="1" si="0">TODAY()</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D10" ca="1" si="1">TODAY()-10</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -1254,7 +1255,7 @@
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>91436</v>
       </c>
       <c r="J4" s="5">
@@ -1279,11 +1280,11 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -1297,7 +1298,7 @@
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>91436</v>
       </c>
       <c r="J5" s="5">
@@ -1322,11 +1323,11 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -1340,7 +1341,7 @@
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>91436</v>
       </c>
       <c r="J6" s="5">
@@ -1365,11 +1366,11 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
@@ -1383,7 +1384,7 @@
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>91436</v>
       </c>
       <c r="J7" s="5">
@@ -1408,11 +1409,11 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -1426,7 +1427,7 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <v>91436</v>
       </c>
       <c r="J8" s="5">
@@ -1451,11 +1452,11 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -1469,7 +1470,7 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <v>91436</v>
       </c>
       <c r="J9" s="5">
@@ -1494,11 +1495,11 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -1512,7 +1513,7 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>91436</v>
       </c>
       <c r="J10" s="5">
